--- a/docs/shrcore/shr-core-Procedure-model.xlsx
+++ b/docs/shrcore/shr-core-Procedure-model.xlsx
@@ -9,13 +9,13 @@
     <sheet name="Elements" r:id="rId3" sheetId="1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AI$44</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AI$53</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1328" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1600" uniqueCount="205">
   <si>
     <t>Path</t>
   </si>
@@ -220,10 +220,10 @@
 </t>
   </si>
   <si>
-    <t>shr-core-Procedure-model.careContext[x]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Encounter-model], CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-EpisodeOfCare-model]]}
+    <t>shr-core-Procedure-model.careContext</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Encounter-model]]}
 </t>
   </si>
   <si>
@@ -435,10 +435,6 @@
     <t>http://hl7.org/fhir/ValueSet/performer-role</t>
   </si>
   <si>
-    <t xml:space="preserve">http://ncimeta.nci.nih.gov#C1553854
-</t>
-  </si>
-  <si>
     <t>shr-core-Procedure-model.participation.participationPeriod</t>
   </si>
   <si>
@@ -465,6 +461,47 @@
     <t>The technique used to carry out an action, for example, the specific imaging technical or assessment vehicle.</t>
   </si>
   <si>
+    <t>shr-core-Procedure-model.procedurePartOf[x]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Procedure-model], CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-MedicationAdministration-model], CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Observation-model]]}
+</t>
+  </si>
+  <si>
+    <t>A larger event of which this particular procedure is a component or step.</t>
+  </si>
+  <si>
+    <t>shr-core-Procedure-model.procedurePartOfShr-core-Procedure-model</t>
+  </si>
+  <si>
+    <t>shr-core-Procedure-model.procedurePartOfShr-core-MedicationAdministration-model</t>
+  </si>
+  <si>
+    <t>MedicationAdministration</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-MedicationAdministration-model]]}
+</t>
+  </si>
+  <si>
+    <t>A record of the use of a medication. If the medication is given as part of a course of treatment, the PartOf attribute should refer to the CourseOfTreatment.</t>
+  </si>
+  <si>
+    <t>A record of the use of a medication. If the medication is given as part of a course of treatment, the PartOf attribute should refer to the CourseOfTreatment.
+Although FHIR MedicationAdministration supports date of administration, information source, performer, it lacks common provenance elements, statement creation date, author, and recorder. These are supported as optional extensions.
+FHIR DSTU2 lacks a category attribute, which is provided as an extension in that version.
+SHR does not allow the 'not given' attributes from DSTU2 and STU3, since they are dropped in R4. The status element is used to document medications not given.</t>
+  </si>
+  <si>
+    <t>shr-core-Procedure-model.procedurePartOfShr-core-Observation-model</t>
+  </si>
+  <si>
+    <t>shr-core-Procedure-model.category</t>
+  </si>
+  <si>
+    <t>The general type or class of this item.</t>
+  </si>
+  <si>
     <t>shr-core-Procedure-model.code</t>
   </si>
   <si>
@@ -475,6 +512,32 @@
   </si>
   <si>
     <t>http://hl7.org/fhir/us/core/ValueSet/us-core-procedure-code</t>
+  </si>
+  <si>
+    <t>shr-core-Procedure-model.personAuthor[x]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Patient-model], CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Practitioner-model], CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-RelatedPerson-model]]}
+</t>
+  </si>
+  <si>
+    <t>A human author, patient, practitioner, or related person, as opposed to an organization or device.</t>
+  </si>
+  <si>
+    <t>shr-core-Procedure-model.personInformationSource[x]</t>
+  </si>
+  <si>
+    <t>The person who provided the information, not necessarily the patient.</t>
+  </si>
+  <si>
+    <t>shr-core-Procedure-model.location</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Location-model]]}
+</t>
+  </si>
+  <si>
+    <t>Services and space and equipment provided for a particular purpose; a building or place that provides a particular service or is used for a particular industry. Could be a clinical site, community site, or a mobile facility.</t>
   </si>
   <si>
     <t>shr-core-Procedure-model.bodyLocation</t>
@@ -496,45 +559,34 @@
 Note that BodyLocation is a data type, a reusable structure, not a stand-alone entity. The concept is similar to how a postal address can apply to a person, location, or organization. This contrasts with FHIR's stand-alone BodySite (aka BodyStructure in r4) which 'is not ... intended for describing the type of anatomical location but rather a specific body site on a specific patient' (FHIR 3.5).</t>
   </si>
   <si>
-    <t>shr-core-Procedure-model.procedurePartOf[x]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Procedure-model], CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-MedicationAdministration-model], CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Observation-model]]}
-</t>
-  </si>
-  <si>
-    <t>A larger event of which this particular procedure is a component or step.</t>
-  </si>
-  <si>
-    <t>shr-core-Procedure-model.procedurePartOfShr-core-Procedure-model</t>
-  </si>
-  <si>
-    <t>shr-core-Procedure-model.procedurePartOfShr-core-MedicationAdministration-model</t>
-  </si>
-  <si>
-    <t>MedicationAdministration</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-MedicationAdministration-model]]}
-</t>
-  </si>
-  <si>
-    <t>A record of the use of a medication. If the medication is given as part of a course of treatment, the PartOf attribute should refer to the CourseOfTreatment.</t>
-  </si>
-  <si>
-    <t>A record of the use of a medication. If the medication is given as part of a course of treatment, the PartOf attribute should refer to the CourseOfTreatment.
-Although FHIR MedicationAdministration supports date of administration, information source, performer, it lacks common provenance elements, statement creation date, author, and recorder. These are supported as optional extensions.
-FHIR DSTU2 lacks a category attribute, which is provided as an extension in that version.
-SHR does not allow the 'not given' attributes from DSTU2 and STU3, since they are dropped in R4. The status element is used to document medications not given.</t>
-  </si>
-  <si>
-    <t>shr-core-Procedure-model.procedurePartOfShr-core-Observation-model</t>
-  </si>
-  <si>
-    <t>shr-core-Procedure-model.category</t>
-  </si>
-  <si>
-    <t>The general type or class of this item.</t>
+    <t>shr-core-Procedure-model.outcome</t>
+  </si>
+  <si>
+    <t>The result of an event or performance of an action or behavior, for example, an adverse reaction or procedure.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/procedure-outcome</t>
+  </si>
+  <si>
+    <t>shr-core-Procedure-model.diagnosticReport</t>
+  </si>
+  <si>
+    <t>shr-core-Procedure-model.complicationCode</t>
+  </si>
+  <si>
+    <t>Complication following the procedure, as a code.</t>
+  </si>
+  <si>
+    <t>shr-core-Procedure-model.complicationReference</t>
+  </si>
+  <si>
+    <t>Complication following the procedure, as a reference to a Condition.</t>
+  </si>
+  <si>
+    <t>shr-core-Procedure-model.followUp</t>
+  </si>
+  <si>
+    <t>Instructions for follow up.</t>
   </si>
   <si>
     <t>shr-core-Procedure-model.annotation</t>
@@ -547,6 +599,16 @@
     <t>An added or follow-up note, often after the fact, that contains metadata about who made the statement and when.</t>
   </si>
   <si>
+    <t>shr-core-Procedure-model.focalDevice</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-FocalDevice-model {[]} {[]}
+</t>
+  </si>
+  <si>
+    <t>Activity involving a device that is implanted, removed or otherwise manipulated (e.g., calibration, battery replacement, fitting a prosthesis, attaching a wound-vac, etc.) as a focal portion of the Procedure.</t>
+  </si>
+  <si>
     <t>shr-core-Procedure-model.treatmentIntent</t>
   </si>
   <si>
@@ -563,46 +625,70 @@
 </t>
   </si>
   <si>
-    <t>shr-core-Procedure-model.location</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Location-model]]}
-</t>
-  </si>
-  <si>
-    <t>Services and space and equipment provided for a particular purpose; a building or place that provides a particular service or is used for a particular industry. Could be a clinical site, community site, or a mobile facility.</t>
-  </si>
-  <si>
-    <t>shr-core-Procedure-model.outcome</t>
-  </si>
-  <si>
-    <t>The result of an event or performance of an action or behavior, for example, an adverse reaction or procedure.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/procedure-outcome</t>
-  </si>
-  <si>
-    <t>shr-core-Procedure-model.diagnosticReport</t>
-  </si>
-  <si>
-    <t>shr-core-Procedure-model.materialUsed[x]</t>
+    <t>shr-core-Procedure-model.materialUsedReference[x]</t>
   </si>
   <si>
     <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Device-model], CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Medication-model], CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Substance-model]]}
 </t>
   </si>
   <si>
-    <t>Items used during procedure</t>
-  </si>
-  <si>
-    <t>shr-core-Procedure-model.focalDevice</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-FocalDevice-model {[]} {[]}
+    <t>Identifies medications, devices and any other substance used as part of the procedure.</t>
+  </si>
+  <si>
+    <t>shr-core-Procedure-model.materialUsedReferenceShr-core-Device-model</t>
+  </si>
+  <si>
+    <t>Device</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Device-model]]}
 </t>
   </si>
   <si>
-    <t>A device that is implanted, removed or otherwise manipulated (e.g., calibration, battery replacement, fitting a prosthesis, attaching a wound-vac, etc.) as a focal portion of the Procedure.</t>
+    <t>A specific durable physical device used in diagnosis or treatment. The value is the coding for a type of device, for example, a CPAP machine. The same device might be used on multiple patients.</t>
+  </si>
+  <si>
+    <t>A specific durable physical device used in diagnosis or treatment. The value is the coding for a type of device, for example, a CPAP machine. The same device might be used on multiple patients.
+Device status cannot be reconciled between Argonaut and US-Core, each having different required value sets.
+Device type has extensible mappings to different value sets in Argonaut and US-Core, however both value sets have identical SNOMED content (descendants of 49062001 (Device). We adopt the US-Core value set, which is allowable because the binding is extensible.</t>
+  </si>
+  <si>
+    <t>shr-core-Procedure-model.materialUsedReferenceShr-core-Medication-model</t>
+  </si>
+  <si>
+    <t>Medication</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Medication-model]]}
+</t>
+  </si>
+  <si>
+    <t>A type of prescription drug or over-the-counter drug that is used to prevent, treat, or relieve symptoms of a disease or abnormal condition, but excluding vaccines.</t>
+  </si>
+  <si>
+    <t>A type of prescription drug or over-the-counter drug that is used to prevent, treat, or relieve symptoms of a disease or abnormal condition, but excluding vaccines.
+In FHIR DSTU2 and STU3, Medication lacks the identifier attribute, which is included in SHR as an extension.
+DSTU2 lacks the status attribute, which is required by US-Core.
+Batch is 0..1 in FHIR R4, and accordingly is restricted here.</t>
+  </si>
+  <si>
+    <t>shr-core-Procedure-model.materialUsedReferenceShr-core-Substance-model</t>
+  </si>
+  <si>
+    <t>Substance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Substance-model]]}
+</t>
+  </si>
+  <si>
+    <t>Any matter of defined composition that has discrete existence, whose origin may be biological, mineral or chemical.</t>
+  </si>
+  <si>
+    <t>shr-core-Procedure-model.usedCode</t>
+  </si>
+  <si>
+    <t>Item used during an activity, represented as a code.</t>
   </si>
 </sst>
 </file>
@@ -751,7 +837,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AJ44"/>
+  <dimension ref="A1:AI53"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -3404,7 +3490,7 @@
         <v>128</v>
       </c>
       <c r="Z27" t="s" s="2">
-        <v>129</v>
+        <v>36</v>
       </c>
       <c r="AA27" t="s" s="2">
         <v>36</v>
@@ -3436,7 +3522,7 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -3459,13 +3545,13 @@
         <v>36</v>
       </c>
       <c r="J28" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="K28" t="s" s="2">
         <v>131</v>
       </c>
-      <c r="K28" t="s" s="2">
-        <v>132</v>
-      </c>
       <c r="L28" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="M28" s="2"/>
       <c r="N28" s="2"/>
@@ -3516,7 +3602,7 @@
         <v>36</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>37</v>
@@ -3533,7 +3619,7 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -3556,13 +3642,13 @@
         <v>36</v>
       </c>
       <c r="J29" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="K29" t="s" s="2">
         <v>134</v>
       </c>
-      <c r="K29" t="s" s="2">
-        <v>135</v>
-      </c>
       <c r="L29" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="M29" s="2"/>
       <c r="N29" s="2"/>
@@ -3613,7 +3699,7 @@
         <v>36</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>37</v>
@@ -3630,7 +3716,7 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -3656,10 +3742,10 @@
         <v>45</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="M30" s="2"/>
       <c r="N30" s="2"/>
@@ -3710,7 +3796,7 @@
         <v>36</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>37</v>
@@ -3727,7 +3813,7 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -3735,7 +3821,7 @@
       </c>
       <c r="D31" s="2"/>
       <c r="E31" t="s" s="2">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="F31" t="s" s="2">
         <v>41</v>
@@ -3750,7 +3836,7 @@
         <v>36</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>45</v>
+        <v>138</v>
       </c>
       <c r="K31" t="s" s="2">
         <v>139</v>
@@ -3783,32 +3869,32 @@
         <v>36</v>
       </c>
       <c r="W31" t="s" s="2">
-        <v>140</v>
-      </c>
-      <c r="X31" s="2"/>
+        <v>36</v>
+      </c>
+      <c r="X31" t="s" s="2">
+        <v>36</v>
+      </c>
       <c r="Y31" t="s" s="2">
-        <v>141</v>
+        <v>36</v>
       </c>
       <c r="Z31" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AA31" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AB31" t="s" s="2">
-        <v>36</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="AB31" s="2"/>
       <c r="AC31" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AD31" t="s" s="2">
-        <v>36</v>
+        <v>80</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>41</v>
@@ -3822,18 +3908,20 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>142</v>
-      </c>
-      <c r="B32" s="2"/>
+        <v>140</v>
+      </c>
+      <c r="B32" t="s" s="2">
+        <v>92</v>
+      </c>
       <c r="C32" t="s" s="2">
         <v>36</v>
       </c>
       <c r="D32" s="2"/>
       <c r="E32" t="s" s="2">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="F32" t="s" s="2">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G32" t="s" s="2">
         <v>36</v>
@@ -3845,13 +3933,13 @@
         <v>36</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>143</v>
+        <v>93</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>144</v>
+        <v>39</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>145</v>
+        <v>39</v>
       </c>
       <c r="M32" s="2"/>
       <c r="N32" s="2"/>
@@ -3902,13 +3990,13 @@
         <v>36</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="AH32" t="s" s="2">
         <v>36</v>
@@ -3919,15 +4007,17 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>146</v>
-      </c>
-      <c r="B33" s="2"/>
+        <v>141</v>
+      </c>
+      <c r="B33" t="s" s="2">
+        <v>142</v>
+      </c>
       <c r="C33" t="s" s="2">
         <v>36</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" t="s" s="2">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="F33" t="s" s="2">
         <v>41</v>
@@ -3942,13 +4032,13 @@
         <v>36</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="M33" s="2"/>
       <c r="N33" s="2"/>
@@ -3987,17 +4077,19 @@
         <v>36</v>
       </c>
       <c r="AA33" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB33" s="2"/>
+        <v>36</v>
+      </c>
+      <c r="AB33" t="s" s="2">
+        <v>36</v>
+      </c>
       <c r="AC33" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AD33" t="s" s="2">
-        <v>80</v>
+        <v>36</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>37</v>
@@ -4014,10 +4106,10 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="C34" t="s" s="2">
         <v>36</v>
@@ -4039,13 +4131,13 @@
         <v>36</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>39</v>
+        <v>89</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>39</v>
+        <v>90</v>
       </c>
       <c r="M34" s="2"/>
       <c r="N34" s="2"/>
@@ -4096,7 +4188,7 @@
         <v>36</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>37</v>
@@ -4113,17 +4205,15 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="B35" t="s" s="2">
-        <v>151</v>
-      </c>
+        <v>147</v>
+      </c>
+      <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
         <v>36</v>
       </c>
       <c r="D35" s="2"/>
       <c r="E35" t="s" s="2">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="F35" t="s" s="2">
         <v>41</v>
@@ -4138,13 +4228,13 @@
         <v>36</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>152</v>
+        <v>45</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="M35" s="2"/>
       <c r="N35" s="2"/>
@@ -4195,7 +4285,7 @@
         <v>36</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>37</v>
@@ -4212,11 +4302,9 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>155</v>
-      </c>
-      <c r="B36" t="s" s="2">
-        <v>87</v>
-      </c>
+        <v>149</v>
+      </c>
+      <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
         <v>36</v>
       </c>
@@ -4237,13 +4325,13 @@
         <v>36</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>88</v>
+        <v>45</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>89</v>
+        <v>150</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>90</v>
+        <v>150</v>
       </c>
       <c r="M36" s="2"/>
       <c r="N36" s="2"/>
@@ -4270,13 +4358,11 @@
         <v>36</v>
       </c>
       <c r="W36" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="X36" t="s" s="2">
-        <v>36</v>
-      </c>
+        <v>151</v>
+      </c>
+      <c r="X36" s="2"/>
       <c r="Y36" t="s" s="2">
-        <v>36</v>
+        <v>152</v>
       </c>
       <c r="Z36" t="s" s="2">
         <v>36</v>
@@ -4294,10 +4380,10 @@
         <v>36</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>41</v>
@@ -4311,7 +4397,7 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -4334,13 +4420,13 @@
         <v>36</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>45</v>
+        <v>154</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="M37" s="2"/>
       <c r="N37" s="2"/>
@@ -4391,7 +4477,7 @@
         <v>36</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>37</v>
@@ -4408,7 +4494,7 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -4419,7 +4505,7 @@
         <v>37</v>
       </c>
       <c r="F38" t="s" s="2">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G38" t="s" s="2">
         <v>36</v>
@@ -4431,13 +4517,13 @@
         <v>36</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="M38" s="2"/>
       <c r="N38" s="2"/>
@@ -4488,13 +4574,13 @@
         <v>36</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="AH38" t="s" s="2">
         <v>36</v>
@@ -4505,7 +4591,7 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -4528,13 +4614,13 @@
         <v>36</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>45</v>
+        <v>159</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="M39" s="2"/>
       <c r="N39" s="2"/>
@@ -4561,14 +4647,16 @@
         <v>36</v>
       </c>
       <c r="W39" t="s" s="2">
-        <v>163</v>
-      </c>
-      <c r="X39" s="2"/>
+        <v>36</v>
+      </c>
+      <c r="X39" t="s" s="2">
+        <v>36</v>
+      </c>
       <c r="Y39" t="s" s="2">
-        <v>164</v>
+        <v>36</v>
       </c>
       <c r="Z39" t="s" s="2">
-        <v>165</v>
+        <v>36</v>
       </c>
       <c r="AA39" t="s" s="2">
         <v>36</v>
@@ -4583,7 +4671,7 @@
         <v>36</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>37</v>
@@ -4600,7 +4688,7 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -4611,7 +4699,7 @@
         <v>37</v>
       </c>
       <c r="F40" t="s" s="2">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G40" t="s" s="2">
         <v>36</v>
@@ -4623,13 +4711,13 @@
         <v>36</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="M40" s="2"/>
       <c r="N40" s="2"/>
@@ -4680,13 +4768,13 @@
         <v>36</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AG40" t="s" s="2">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="AH40" t="s" s="2">
         <v>36</v>
@@ -4697,7 +4785,7 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -4723,10 +4811,10 @@
         <v>45</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="M41" s="2"/>
       <c r="N41" s="2"/>
@@ -4757,7 +4845,7 @@
       </c>
       <c r="X41" s="2"/>
       <c r="Y41" t="s" s="2">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="Z41" t="s" s="2">
         <v>36</v>
@@ -4775,7 +4863,7 @@
         <v>36</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>37</v>
@@ -4792,7 +4880,7 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -4872,7 +4960,7 @@
         <v>36</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>37</v>
@@ -4889,7 +4977,7 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -4912,13 +5000,13 @@
         <v>36</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>174</v>
+        <v>45</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="M43" s="2"/>
       <c r="N43" s="2"/>
@@ -4969,7 +5057,7 @@
         <v>36</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>37</v>
@@ -4986,7 +5074,7 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -5009,13 +5097,13 @@
         <v>36</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>177</v>
+        <v>83</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="M44" s="2"/>
       <c r="N44" s="2"/>
@@ -5066,7 +5154,7 @@
         <v>36</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>37</v>
@@ -5081,8 +5169,883 @@
         <v>36</v>
       </c>
     </row>
+    <row r="45" hidden="true">
+      <c r="A45" t="s" s="2">
+        <v>173</v>
+      </c>
+      <c r="B45" s="2"/>
+      <c r="C45" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="D45" s="2"/>
+      <c r="E45" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="F45" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="G45" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="H45" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="I45" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="J45" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="K45" t="s" s="2">
+        <v>174</v>
+      </c>
+      <c r="L45" t="s" s="2">
+        <v>174</v>
+      </c>
+      <c r="M45" s="2"/>
+      <c r="N45" s="2"/>
+      <c r="O45" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="P45" s="2"/>
+      <c r="Q45" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="R45" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="S45" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="T45" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="U45" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="V45" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="W45" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="X45" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="Y45" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="Z45" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AA45" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AB45" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AC45" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AD45" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AE45" t="s" s="2">
+        <v>173</v>
+      </c>
+      <c r="AF45" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AG45" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AH45" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AI45" t="s" s="2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="46" hidden="true">
+      <c r="A46" t="s" s="2">
+        <v>175</v>
+      </c>
+      <c r="B46" s="2"/>
+      <c r="C46" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="D46" s="2"/>
+      <c r="E46" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="F46" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="G46" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="H46" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="I46" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="J46" t="s" s="2">
+        <v>176</v>
+      </c>
+      <c r="K46" t="s" s="2">
+        <v>177</v>
+      </c>
+      <c r="L46" t="s" s="2">
+        <v>177</v>
+      </c>
+      <c r="M46" s="2"/>
+      <c r="N46" s="2"/>
+      <c r="O46" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="P46" s="2"/>
+      <c r="Q46" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="R46" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="S46" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="T46" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="U46" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="V46" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="W46" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="X46" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="Y46" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="Z46" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AA46" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AB46" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AC46" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AD46" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AE46" t="s" s="2">
+        <v>175</v>
+      </c>
+      <c r="AF46" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AG46" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AH46" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AI46" t="s" s="2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="47" hidden="true">
+      <c r="A47" t="s" s="2">
+        <v>178</v>
+      </c>
+      <c r="B47" s="2"/>
+      <c r="C47" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="D47" s="2"/>
+      <c r="E47" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="F47" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="G47" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="H47" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="I47" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="J47" t="s" s="2">
+        <v>179</v>
+      </c>
+      <c r="K47" t="s" s="2">
+        <v>180</v>
+      </c>
+      <c r="L47" t="s" s="2">
+        <v>180</v>
+      </c>
+      <c r="M47" s="2"/>
+      <c r="N47" s="2"/>
+      <c r="O47" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="P47" s="2"/>
+      <c r="Q47" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="R47" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="S47" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="T47" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="U47" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="V47" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="W47" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="X47" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="Y47" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="Z47" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AA47" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AB47" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AC47" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AD47" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AE47" t="s" s="2">
+        <v>178</v>
+      </c>
+      <c r="AF47" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AG47" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AH47" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AI47" t="s" s="2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="48" hidden="true">
+      <c r="A48" t="s" s="2">
+        <v>181</v>
+      </c>
+      <c r="B48" s="2"/>
+      <c r="C48" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="D48" s="2"/>
+      <c r="E48" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="F48" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="G48" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="H48" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="I48" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="J48" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="K48" t="s" s="2">
+        <v>182</v>
+      </c>
+      <c r="L48" t="s" s="2">
+        <v>182</v>
+      </c>
+      <c r="M48" s="2"/>
+      <c r="N48" s="2"/>
+      <c r="O48" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="P48" s="2"/>
+      <c r="Q48" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="R48" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="S48" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="T48" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="U48" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="V48" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="W48" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="X48" s="2"/>
+      <c r="Y48" t="s" s="2">
+        <v>184</v>
+      </c>
+      <c r="Z48" t="s" s="2">
+        <v>185</v>
+      </c>
+      <c r="AA48" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AB48" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AC48" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AD48" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AE48" t="s" s="2">
+        <v>181</v>
+      </c>
+      <c r="AF48" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AG48" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AH48" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AI48" t="s" s="2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="49" hidden="true">
+      <c r="A49" t="s" s="2">
+        <v>186</v>
+      </c>
+      <c r="B49" s="2"/>
+      <c r="C49" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="D49" s="2"/>
+      <c r="E49" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="F49" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="G49" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="H49" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="I49" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="J49" t="s" s="2">
+        <v>187</v>
+      </c>
+      <c r="K49" t="s" s="2">
+        <v>188</v>
+      </c>
+      <c r="L49" t="s" s="2">
+        <v>188</v>
+      </c>
+      <c r="M49" s="2"/>
+      <c r="N49" s="2"/>
+      <c r="O49" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="P49" s="2"/>
+      <c r="Q49" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="R49" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="S49" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="T49" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="U49" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="V49" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="W49" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="X49" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="Y49" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="Z49" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AA49" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB49" s="2"/>
+      <c r="AC49" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AD49" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE49" t="s" s="2">
+        <v>186</v>
+      </c>
+      <c r="AF49" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AG49" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AH49" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AI49" t="s" s="2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="50" hidden="true">
+      <c r="A50" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="B50" t="s" s="2">
+        <v>190</v>
+      </c>
+      <c r="C50" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="D50" s="2"/>
+      <c r="E50" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F50" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="G50" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="H50" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="I50" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="J50" t="s" s="2">
+        <v>191</v>
+      </c>
+      <c r="K50" t="s" s="2">
+        <v>192</v>
+      </c>
+      <c r="L50" t="s" s="2">
+        <v>193</v>
+      </c>
+      <c r="M50" s="2"/>
+      <c r="N50" s="2"/>
+      <c r="O50" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="P50" s="2"/>
+      <c r="Q50" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="R50" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="S50" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="T50" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="U50" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="V50" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="W50" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="X50" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="Y50" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="Z50" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AA50" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AB50" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AC50" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AD50" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AE50" t="s" s="2">
+        <v>186</v>
+      </c>
+      <c r="AF50" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AG50" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AH50" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AI50" t="s" s="2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="51" hidden="true">
+      <c r="A51" t="s" s="2">
+        <v>194</v>
+      </c>
+      <c r="B51" t="s" s="2">
+        <v>195</v>
+      </c>
+      <c r="C51" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="D51" s="2"/>
+      <c r="E51" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F51" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="G51" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="H51" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="I51" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="J51" t="s" s="2">
+        <v>196</v>
+      </c>
+      <c r="K51" t="s" s="2">
+        <v>197</v>
+      </c>
+      <c r="L51" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="M51" s="2"/>
+      <c r="N51" s="2"/>
+      <c r="O51" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="P51" s="2"/>
+      <c r="Q51" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="R51" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="S51" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="T51" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="U51" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="V51" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="W51" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="X51" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="Y51" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="Z51" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AA51" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AB51" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AC51" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AD51" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AE51" t="s" s="2">
+        <v>186</v>
+      </c>
+      <c r="AF51" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AG51" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AH51" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AI51" t="s" s="2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="52" hidden="true">
+      <c r="A52" t="s" s="2">
+        <v>199</v>
+      </c>
+      <c r="B52" t="s" s="2">
+        <v>200</v>
+      </c>
+      <c r="C52" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="D52" s="2"/>
+      <c r="E52" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F52" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="G52" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="H52" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="I52" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="J52" t="s" s="2">
+        <v>201</v>
+      </c>
+      <c r="K52" t="s" s="2">
+        <v>202</v>
+      </c>
+      <c r="L52" t="s" s="2">
+        <v>202</v>
+      </c>
+      <c r="M52" s="2"/>
+      <c r="N52" s="2"/>
+      <c r="O52" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="P52" s="2"/>
+      <c r="Q52" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="R52" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="S52" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="T52" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="U52" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="V52" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="W52" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="X52" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="Y52" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="Z52" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AA52" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AB52" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AC52" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AD52" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AE52" t="s" s="2">
+        <v>186</v>
+      </c>
+      <c r="AF52" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AG52" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AH52" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AI52" t="s" s="2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="53" hidden="true">
+      <c r="A53" t="s" s="2">
+        <v>203</v>
+      </c>
+      <c r="B53" s="2"/>
+      <c r="C53" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="D53" s="2"/>
+      <c r="E53" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="F53" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="G53" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="H53" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="I53" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="J53" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="K53" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="L53" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="M53" s="2"/>
+      <c r="N53" s="2"/>
+      <c r="O53" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="P53" s="2"/>
+      <c r="Q53" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="R53" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="S53" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="T53" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="U53" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="V53" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="W53" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="X53" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="Y53" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="Z53" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AA53" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AB53" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AC53" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AD53" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AE53" t="s" s="2">
+        <v>203</v>
+      </c>
+      <c r="AF53" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AG53" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AH53" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AI53" t="s" s="2">
+        <v>36</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:AI44">
+  <autoFilter ref="A1:AI53">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -5092,7 +6055,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI43">
+  <conditionalFormatting sqref="A2:AI52">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>
